--- a/12-9-19-polarimeter2.xlsx
+++ b/12-9-19-polarimeter2.xlsx
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9987444112195083</v>
+        <v>0.9987444304514304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001255588780491645</v>
+        <v>0.001255569548569591</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03508572888707483</v>
+        <v>-0.03508573024000428</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.004796255307161116</v>
+        <v>-0.0047962554946645</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000318406</v>
+        <v>1.000000038879132</v>
       </c>
     </row>
     <row r="3">
@@ -1163,19 +1163,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9880521544773692</v>
+        <v>0.9880521699129747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01194784552263084</v>
+        <v>0.01194783008702527</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05981653518789599</v>
+        <v>-0.05981653707971114</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09070323417036863</v>
+        <v>-0.09070323703952661</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000121703</v>
+        <v>1.00000003174884</v>
       </c>
     </row>
     <row r="4">
@@ -1183,19 +1183,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9577221083859595</v>
+        <v>0.9577221255824582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0422778916140405</v>
+        <v>0.04227787441754183</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08853828894234649</v>
+        <v>-0.08853829226870656</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1806971027120421</v>
+        <v>-0.1806971095000741</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000085306</v>
+        <v>1.000000037654529</v>
       </c>
     </row>
     <row r="5">
@@ -1203,19 +1203,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9045481276015861</v>
+        <v>0.9045481437645724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09545187239841391</v>
+        <v>0.09545185623542757</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1203022685390562</v>
+        <v>-0.120302273345515</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2680824064775805</v>
+        <v>-0.2680824171864547</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000048806</v>
+        <v>1.000000039999985</v>
       </c>
     </row>
     <row r="6">
@@ -1223,19 +1223,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8306439971254501</v>
+        <v>0.8306440092371694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1693560028745499</v>
+        <v>0.1693559907628306</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1526190833056783</v>
+        <v>-0.1526190888962212</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3426105115000767</v>
+        <v>-0.3426105240480914</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000029009</v>
+        <v>1.0000000366569</v>
       </c>
     </row>
     <row r="7">
@@ -1243,19 +1243,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7491075901065396</v>
+        <v>0.7491075952775084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2508924098934603</v>
+        <v>0.2508924047224916</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1821632591464309</v>
+        <v>-0.1821632629277711</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.393397960821304</v>
+        <v>-0.3933979689874998</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000000019795</v>
+        <v>1.00000002077785</v>
       </c>
     </row>
     <row r="8">
@@ -1263,19 +1263,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6671362388195756</v>
+        <v>0.6671362438220804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3328637611804243</v>
+        <v>0.3328637561779196</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2107142474205651</v>
+        <v>-0.2107142537273903</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4215032427095938</v>
+        <v>-0.4215032553276884</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000014944</v>
+        <v>1.000000029949367</v>
       </c>
     </row>
     <row r="9">
@@ -1283,19 +1283,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5889899304435463</v>
+        <v>0.5889899342631957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4110100695564537</v>
+        <v>0.4110100657368043</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2433097701412835</v>
+        <v>-0.2433097805846896</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4276460546288246</v>
+        <v>-0.4276460729870233</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000000012302</v>
+        <v>1.00000004293912</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1303,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5316703580345514</v>
+        <v>0.5316703580475148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4683296419654486</v>
+        <v>0.4683296419524852</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2846848483725824</v>
+        <v>-0.2846848484891114</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4098188935791313</v>
+        <v>-0.4098188937486522</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000010761</v>
+        <v>1.00000000042299</v>
       </c>
     </row>
     <row r="11">
@@ -1323,19 +1323,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5085477563935203</v>
+        <v>0.5085477563896565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4914522436064796</v>
+        <v>0.4914522436103434</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3649701299313711</v>
+        <v>-0.3649701297663948</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3416485628894308</v>
+        <v>-0.3416485627367999</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000811796</v>
+        <v>1.000000000362234</v>
       </c>
     </row>
     <row r="12">
@@ -1343,19 +1343,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.596941933654803</v>
+        <v>0.5969419336279045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4030580663451971</v>
+        <v>0.4030580663720955</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4704911742389219</v>
+        <v>-0.4704911741083747</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1387094689021436</v>
+        <v>-0.1387094688612039</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000000000601133</v>
+        <v>1.000000000322303</v>
       </c>
     </row>
     <row r="13">
@@ -1363,19 +1363,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7935630908088138</v>
+        <v>0.7935630906975492</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2064369091911861</v>
+        <v>0.2064369093024508</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3178708626592251</v>
+        <v>-0.3178708625387474</v>
       </c>
       <c r="E13" t="n">
-        <v>0.250557032920776</v>
+        <v>0.2505570328246599</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000718013</v>
+        <v>1.000000000337845</v>
       </c>
     </row>
     <row r="14">
@@ -1383,19 +1383,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8547856064878591</v>
+        <v>0.8547856066365391</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1452143935121409</v>
+        <v>0.1452143933634608</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1282390698373299</v>
+        <v>-0.128239069891071</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3281492258133363</v>
+        <v>0.3281492259525265</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000011187</v>
+        <v>1.000000000432453</v>
       </c>
     </row>
     <row r="15">
@@ -1403,19 +1403,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8893608738117446</v>
+        <v>0.8893608796270479</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1106391261882554</v>
+        <v>0.1106391203729521</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05646493140726958</v>
+        <v>-0.05646493225060215</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3085608877899389</v>
+        <v>0.3085608923997552</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000000015976</v>
+        <v>1.000000014953094</v>
       </c>
     </row>
     <row r="16">
@@ -1423,19 +1423,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9210438633815434</v>
+        <v>0.9210438782987641</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07895613661845657</v>
+        <v>0.07895612170123589</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02678149308185226</v>
+        <v>-0.02678149403069745</v>
       </c>
       <c r="E16" t="n">
-        <v>0.268337132634931</v>
+        <v>0.268337142140442</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000027371</v>
+        <v>1.000000035454961</v>
       </c>
     </row>
     <row r="17">
@@ -1443,19 +1443,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9522255615707527</v>
+        <v>0.9522255796692614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04777443842924739</v>
+        <v>0.04777442033073859</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01484352111956834</v>
+        <v>-0.01484352171362053</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2127715003692888</v>
+        <v>0.2127715088831691</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000000053216</v>
+        <v>1.000000040072965</v>
       </c>
     </row>
     <row r="18">
@@ -1463,19 +1463,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9763212942317778</v>
+        <v>0.9763213114217798</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02367870576822217</v>
+        <v>0.0236786885782202</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0149085603747428</v>
+        <v>-0.01490856091277917</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1513134479646984</v>
+        <v>0.1513134534251158</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000092097</v>
+        <v>1.000000036180978</v>
       </c>
     </row>
     <row r="19">
@@ -1483,19 +1483,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9935848492396424</v>
+        <v>0.9935848661995045</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006415150760357591</v>
+        <v>0.006415133800495521</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02346606285885101</v>
+        <v>-0.02346606366515856</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07631081550648029</v>
+        <v>0.07631081812952865</v>
       </c>
       <c r="F19" t="n">
-        <v>1.00000000013656</v>
+        <v>1.000000034497436</v>
       </c>
     </row>
     <row r="20">
@@ -1503,19 +1503,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9983640733851267</v>
+        <v>0.9983640938745127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001635926614873384</v>
+        <v>0.001635906125487252</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03918459498695637</v>
+        <v>-0.03918459659796395</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.009890298393126379</v>
+        <v>-0.009890298806078749</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000255226</v>
+        <v>1.000000041368766</v>
       </c>
     </row>
   </sheetData>
